--- a/code_books/course_level_codebook.xlsx
+++ b/code_books/course_level_codebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\Documents\DATA485\consulting-project-si-1\code_books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB64E1F4-6842-4499-9ED8-519278F0CF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EF4D76-CFAC-4D91-8675-5D12C2844E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AD6F565A-65D0-F64D-AC0A-9934B4CB920B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="104">
   <si>
     <t>Variable Name</t>
   </si>
@@ -50,6 +50,303 @@
   </si>
   <si>
     <t xml:space="preserve">Cleaned </t>
+  </si>
+  <si>
+    <t>Random.Course.ID</t>
+  </si>
+  <si>
+    <t>Term Year</t>
+  </si>
+  <si>
+    <t>Term Type</t>
+  </si>
+  <si>
+    <t>class.size</t>
+  </si>
+  <si>
+    <t>class.average</t>
+  </si>
+  <si>
+    <t>dwf.rate</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>College.Year</t>
+  </si>
+  <si>
+    <t>Academic.Year</t>
+  </si>
+  <si>
+    <t>Random.Instructor.ID</t>
+  </si>
+  <si>
+    <t>Class.Subject.Number.Section</t>
+  </si>
+  <si>
+    <t>Course.Subject.and.Number</t>
+  </si>
+  <si>
+    <t>Academic.Subject</t>
+  </si>
+  <si>
+    <t>Academic.Subject.Code</t>
+  </si>
+  <si>
+    <t>Course.Catalog.Number</t>
+  </si>
+  <si>
+    <t>Class.Section</t>
+  </si>
+  <si>
+    <t>Class.Long.Description</t>
+  </si>
+  <si>
+    <t>Course.Catalog.Title</t>
+  </si>
+  <si>
+    <t>Class.Level</t>
+  </si>
+  <si>
+    <t>Class.Learning.Mode</t>
+  </si>
+  <si>
+    <t>Instruction.Mode</t>
+  </si>
+  <si>
+    <t>Instruction.Mode.Code</t>
+  </si>
+  <si>
+    <t>Inst.MD.Persn.Chcoflx.Onl.Othr</t>
+  </si>
+  <si>
+    <t>Inst.MD.Persn.Onl.Othr</t>
+  </si>
+  <si>
+    <t>Course.Type.CS.Number</t>
+  </si>
+  <si>
+    <t>Course.Type</t>
+  </si>
+  <si>
+    <t>Course.Activity.Type</t>
+  </si>
+  <si>
+    <t>Course.WTU.Factor.Type</t>
+  </si>
+  <si>
+    <t>Course.WTU.Factor.Value</t>
+  </si>
+  <si>
+    <t>Class.Status</t>
+  </si>
+  <si>
+    <t>Class.Enrollment.Status</t>
+  </si>
+  <si>
+    <t>Class.Enrollment.Type</t>
+  </si>
+  <si>
+    <t>Course.Fee.Exist.Flag</t>
+  </si>
+  <si>
+    <t>Combined.Section.Group.ID</t>
+  </si>
+  <si>
+    <t>Combined.Section.Primary.Class.Flag</t>
+  </si>
+  <si>
+    <t>Writing.Course.Flag</t>
+  </si>
+  <si>
+    <t>Writing.Course.Flag.Description</t>
+  </si>
+  <si>
+    <t>Writing.or.Not.Writing.Class</t>
+  </si>
+  <si>
+    <t>GE.Class.Flag</t>
+  </si>
+  <si>
+    <t>GE.or.Program.Flag.Description</t>
+  </si>
+  <si>
+    <t>GE.or.Program.Major</t>
+  </si>
+  <si>
+    <t>GE.Foundation.Course</t>
+  </si>
+  <si>
+    <t>GE.Foundation.Course.Code</t>
+  </si>
+  <si>
+    <t>GE.Advanced.Course.Substitution.Flag</t>
+  </si>
+  <si>
+    <t>Honors.Class.Flag</t>
+  </si>
+  <si>
+    <t>Class.Notes</t>
+  </si>
+  <si>
+    <t>State.Supported.Reporting.Flag</t>
+  </si>
+  <si>
+    <t>Census.Reporting.Flag</t>
+  </si>
+  <si>
+    <t>SI.Component.Flag</t>
+  </si>
+  <si>
+    <t>[2016-2022]</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Integer ID</t>
+  </si>
+  <si>
+    <t>Fall, Spring, Summer, Winter</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>[11-401]</t>
+  </si>
+  <si>
+    <t>[5-345060]</t>
+  </si>
+  <si>
+    <t>[0-4]</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>Average class GPA grade</t>
+  </si>
+  <si>
+    <t>[0-0.76]</t>
+  </si>
+  <si>
+    <t>"Drop, Withdraw, or Fail" rate</t>
+  </si>
+  <si>
+    <t>[0-1766]</t>
+  </si>
+  <si>
+    <t>Total number of attendances to SI for this class</t>
+  </si>
+  <si>
+    <t>2015-16, 2016-17, 2017-18, 2018-19, 2019-20, 2020-21, 2021-22</t>
+  </si>
+  <si>
+    <t>[-2-56356]</t>
+  </si>
+  <si>
+    <t>Class subject and number with numberic identifier for section</t>
+  </si>
+  <si>
+    <t>Class subject and number</t>
+  </si>
+  <si>
+    <t>Full name of class subject, for full list look up Chico state class catalogue</t>
+  </si>
+  <si>
+    <t>3-4 letter code for class subject</t>
+  </si>
+  <si>
+    <t>[100-599] + W</t>
+  </si>
+  <si>
+    <t>Some numeric codes include a letter to denote specific class type</t>
+  </si>
+  <si>
+    <t>[1-704], A1, A2, A3, A4, B1, B2, B3, B4, B5</t>
+  </si>
+  <si>
+    <t>Identifier for specific section of a class</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Specific course description</t>
+  </si>
+  <si>
+    <t>Course title as it appears in the course catalogue</t>
+  </si>
+  <si>
+    <t>Lower Division, Upper Division</t>
+  </si>
+  <si>
+    <t>A/S Hybrid no meeting AB386, Asychronous mtgs allowed FDE, Asychronous no meetings AB386, Asychronous with mtgs Hybrid, Face-to-Face, Sychronous mtgs allowed FDE, Synchronous no meetings AB386, Sychronous with mtgs Hybrid</t>
+  </si>
+  <si>
+    <t>In Person, Entirely Internet Based, All Internet Specific Times, In Person, Addtl Internet Use, etc</t>
+  </si>
+  <si>
+    <t>E, F, H, I, J, K, O, P, S, T, U, X</t>
+  </si>
+  <si>
+    <t>Chicoflex, In Person, Online, Other</t>
+  </si>
+  <si>
+    <t>In Person, Online, Other</t>
+  </si>
+  <si>
+    <t>[1-78]</t>
+  </si>
+  <si>
+    <t>Related to WTU</t>
+  </si>
+  <si>
+    <t>Activity-lab, Lecture, Laboratory, Supervision</t>
+  </si>
+  <si>
+    <t>Activity, Clinical, Discussion, Laboratory, Large Lecture, Lecture, Non-traditional, Performance, Seminar, Supervision, Workship</t>
+  </si>
+  <si>
+    <t>K factor, N/V, S factor</t>
+  </si>
+  <si>
+    <t>[.25-3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active, Stop Further Enrolment </t>
+  </si>
+  <si>
+    <t>Closed, Open</t>
+  </si>
+  <si>
+    <t>Enrollment Section, Non-enrollnent Section</t>
+  </si>
+  <si>
+    <t>Y, N</t>
+  </si>
+  <si>
+    <t>[1-5997]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Writing Class, Writing Class </t>
+  </si>
+  <si>
+    <t>General Education, Program-Major</t>
+  </si>
+  <si>
+    <t>Critical Thing (A3), Life Sciences (B2), Oral Communication (A1), Physical Sciences (B1), Quantitative Reasoning (A4), Quantitative Reasoning (B4), Writing Communication (A2)</t>
+  </si>
+  <si>
+    <t>CRIT, LIFE, ORAL, PHYSC, QUAN, WRIT</t>
+  </si>
+  <si>
+    <t>Notes associated with the course</t>
+  </si>
+  <si>
+    <t>0, 1</t>
   </si>
 </sst>
 </file>
@@ -91,11 +388,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -136,14 +430,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1835B9EF-7115-7D47-8B26-F24CD1D51F3B}" name="Table2" displayName="Table2" ref="A1:E34" totalsRowShown="0" dataDxfId="5">
-  <autoFilter ref="A1:E34" xr:uid="{1835B9EF-7115-7D47-8B26-F24CD1D51F3B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1835B9EF-7115-7D47-8B26-F24CD1D51F3B}" name="Table2" displayName="Table2" ref="A1:E51" totalsRowShown="0" dataDxfId="2">
+  <autoFilter ref="A1:E51" xr:uid="{1835B9EF-7115-7D47-8B26-F24CD1D51F3B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{9A813272-B994-F94F-B6A1-7F84CBD31777}" name="Variable Name" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{0C45A5A0-E457-BE4E-9455-F14B7417D755}" name="Values" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{7D3EA039-774C-6747-A7AB-4A9BE33188C2}" name="Data Type" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{9A813272-B994-F94F-B6A1-7F84CBD31777}" name="Variable Name" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{0C45A5A0-E457-BE4E-9455-F14B7417D755}" name="Values" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{7D3EA039-774C-6747-A7AB-4A9BE33188C2}" name="Data Type" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{985B946C-ED9A-8847-98FB-6B6999B4D59C}" name="Notes" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{B1381526-D9E2-874D-9C91-FCD8A677DB74}" name="Cleaned " dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{B1381526-D9E2-874D-9C91-FCD8A677DB74}" name="Cleaned " dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -446,18 +740,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF364617-BA0F-D94C-BCC4-FBBC3DC92DB2}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42.6640625" customWidth="1"/>
-    <col min="2" max="2" width="46.5" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -465,13 +759,13 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -479,232 +773,559 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="124" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="93" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="1"/>
+      <c r="C51" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
